--- a/Product.xlsx
+++ b/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sourcecode\spring_js\part2\Product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FADF0F-ADFF-4BBA-B4E6-9A9F0849C3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F937C4A2-7FA0-4D20-941C-F9685E07EFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1728" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>/image/25.webp</t>
-  </si>
-  <si>
-    <t>/image/24.webp</t>
   </si>
   <si>
     <t>/image/26.webp</t>
@@ -659,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1234,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E25">
         <v>1594</v>
@@ -1283,7 +1280,7 @@
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27">
         <v>1070</v>
@@ -1306,7 +1303,7 @@
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28">
         <v>2496</v>
@@ -1329,7 +1326,7 @@
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29">
         <v>728</v>
@@ -1352,7 +1349,7 @@
         <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30">
         <v>879</v>
